--- a/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E7E7149-A195-4142-A7E2-B52E101A3276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C39FA1-F8D4-4200-B594-3AD51404496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{858C1F0D-F06E-4626-B0F8-17FC861BC17D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD111E26-F2A0-4219-BAC5-F728E2915089}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,55%</t>
   </si>
   <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>54,28%</t>
   </si>
   <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>45,72%</t>
   </si>
   <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
   </si>
   <si>
     <t>42,25%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,55 +254,55 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,109 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>89,15%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>54,13%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
   </si>
   <si>
     <t>31,64%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>45,87%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>68,36%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -425,73 +425,67 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>35,97%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>42,59%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>36,65%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>64,03%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
+    <t>57,41%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>59,36%</t>
   </si>
   <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>33,34%</t>
@@ -500,31 +494,31 @@
     <t>30,49%</t>
   </si>
   <si>
-    <t>36,08%</t>
+    <t>35,92%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>40,64%</t>
   </si>
   <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>63,92%</t>
+    <t>64,08%</t>
   </si>
   <si>
     <t>69,51%</t>
@@ -533,25 +527,25 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>55,28%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,47%</t>
+    <t>29,74%</t>
   </si>
   <si>
     <t>33,94%</t>
@@ -560,19 +554,19 @@
     <t>92,01%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>44,72%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>68,2%</t>
@@ -581,805 +575,793 @@
     <t>66,06%</t>
   </si>
   <si>
-    <t>70,53%</t>
+    <t>70,26%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
   </si>
   <si>
     <t>11,02%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>50,42%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>29,61%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>58,93%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>41,07%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>63,81%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>93,46%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
+    <t>95,13%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>61,24%</t>
   </si>
   <si>
-    <t>51,03%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>38,76%</t>
   </si>
   <si>
-    <t>48,97%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>66,5%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>77,64%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>33,5%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>22,36%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>92,04%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3EF01-2B21-43EA-9BC8-94FEF5E270EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB2AFD0-AD9E-408C-B946-805065F9AA61}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2768,7 +2750,7 @@
         <v>4479</v>
       </c>
       <c r="N20" s="7">
-        <v>4550035</v>
+        <v>4550036</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2819,7 +2801,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2854,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB58C38-38ED-4071-84FB-B740E2905F54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C433CA-C48E-47AE-8A8A-F8786E547856}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3011,10 +2993,10 @@
         <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3011,13 @@
         <v>104773</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3044,13 +3026,13 @@
         <v>41008</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3059,13 +3041,13 @@
         <v>145781</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,13 +3115,13 @@
         <v>43642</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -3148,13 +3130,13 @@
         <v>347345</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>366</v>
@@ -3163,13 +3145,13 @@
         <v>390987</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3166,13 @@
         <v>544062</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>225</v>
@@ -3199,13 +3181,13 @@
         <v>237800</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>737</v>
@@ -3214,13 +3196,13 @@
         <v>781862</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3270,13 @@
         <v>81359</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>516</v>
@@ -3303,13 +3285,13 @@
         <v>570565</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>592</v>
@@ -3318,13 +3300,13 @@
         <v>651924</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3321,13 @@
         <v>936588</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>424</v>
@@ -3354,13 +3336,13 @@
         <v>461619</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1284</v>
@@ -3369,13 +3351,13 @@
         <v>1398207</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3425,13 @@
         <v>80659</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>400</v>
@@ -3458,13 +3440,13 @@
         <v>439683</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>470</v>
@@ -3473,13 +3455,13 @@
         <v>520342</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3476,13 @@
         <v>676964</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>305</v>
@@ -3509,13 +3491,13 @@
         <v>337491</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>924</v>
@@ -3524,13 +3506,13 @@
         <v>1014455</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3580,13 @@
         <v>104465</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>503</v>
@@ -3613,13 +3595,13 @@
         <v>530389</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>600</v>
@@ -3628,13 +3610,13 @@
         <v>634854</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3631,13 @@
         <v>843274</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>500</v>
@@ -3664,13 +3646,13 @@
         <v>521512</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>1313</v>
@@ -3679,13 +3661,13 @@
         <v>1364786</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3735,13 @@
         <v>321117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>1807</v>
@@ -3768,13 +3750,13 @@
         <v>1958879</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>2103</v>
@@ -3783,13 +3765,13 @@
         <v>2279995</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3786,13 @@
         <v>3105662</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>1491</v>
@@ -3819,13 +3801,13 @@
         <v>1599430</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M20" s="7">
         <v>4404</v>
@@ -3834,13 +3816,13 @@
         <v>4705093</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D99F956-3FDD-45F9-AB1D-0F63B13431EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE313054-62A2-4750-BE11-2200F34DEDC4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4363,7 @@
         <v>688519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>276</v>
@@ -4432,7 +4414,7 @@
         <v>1376825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>284</v>
@@ -4509,10 +4491,10 @@
         <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -4521,13 +4503,13 @@
         <v>441887</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>500</v>
@@ -4536,13 +4518,13 @@
         <v>545625</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4539,13 @@
         <v>655814</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -4572,13 +4554,13 @@
         <v>343124</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>932</v>
@@ -4587,13 +4569,13 @@
         <v>998938</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4643,13 @@
         <v>156155</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -4676,13 +4658,13 @@
         <v>539150</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>647</v>
@@ -4691,13 +4673,13 @@
         <v>695306</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4694,13 @@
         <v>781412</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
@@ -4727,13 +4709,13 @@
         <v>504629</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1244</v>
@@ -4742,13 +4724,13 @@
         <v>1286040</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4798,13 @@
         <v>487343</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1833</v>
@@ -4831,13 +4813,13 @@
         <v>1960072</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>2288</v>
@@ -4846,13 +4828,13 @@
         <v>2447415</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4849,13 @@
         <v>2907007</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1505</v>
@@ -4882,13 +4864,13 @@
         <v>1584470</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>4281</v>
@@ -4897,13 +4879,13 @@
         <v>4491477</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD73E0E9-1BC2-43E9-9FF9-EB3B6D8EC5B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A37495D-3590-4876-9947-E9FB3AF4E440}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4997,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5104,13 +5086,13 @@
         <v>60102</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>225</v>
@@ -5119,13 +5101,13 @@
         <v>122693</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -5134,13 +5116,13 @@
         <v>182795</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5137,13 @@
         <v>41880</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5170,13 +5152,13 @@
         <v>8040</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -5185,13 +5167,13 @@
         <v>49920</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5241,13 @@
         <v>350850</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>927</v>
@@ -5274,13 +5256,13 @@
         <v>579439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M7" s="7">
         <v>1328</v>
@@ -5289,13 +5271,13 @@
         <v>930288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5292,13 @@
         <v>198973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5325,13 +5307,13 @@
         <v>40528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>282</v>
@@ -5340,13 +5322,13 @@
         <v>239502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5396,13 @@
         <v>636433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>1411</v>
@@ -5429,13 +5411,13 @@
         <v>974579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>2035</v>
@@ -5444,13 +5426,13 @@
         <v>1611012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5447,13 @@
         <v>402815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5480,13 +5462,13 @@
         <v>85500</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5495,13 +5477,13 @@
         <v>488315</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5551,13 @@
         <v>492786</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>972</v>
@@ -5584,13 +5566,13 @@
         <v>807415</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -5599,13 +5581,13 @@
         <v>1300200</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5602,13 @@
         <v>235986</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5635,13 +5617,13 @@
         <v>66956</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -5650,13 +5632,13 @@
         <v>302942</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5706,13 @@
         <v>641966</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>1402</v>
@@ -5739,13 +5721,13 @@
         <v>1000840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
         <v>2069</v>
@@ -5754,13 +5736,13 @@
         <v>1642805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,13 +5757,13 @@
         <v>323437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -5790,13 +5772,13 @@
         <v>149592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -5805,13 +5787,13 @@
         <v>473030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5861,13 @@
         <v>2182137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>4937</v>
@@ -5894,28 +5876,28 @@
         <v>3484964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>433</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>7164</v>
       </c>
       <c r="N19" s="7">
-        <v>5667101</v>
+        <v>5667100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,13 +5912,13 @@
         <v>1203091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -5945,13 +5927,13 @@
         <v>350617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>1579</v>
@@ -5960,13 +5942,13 @@
         <v>1553708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,7 +5990,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49C39FA1-F8D4-4200-B594-3AD51404496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920D81B9-1D12-438A-A55E-902D8E379E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD111E26-F2A0-4219-BAC5-F728E2915089}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1108DD62-49AA-47A1-BB4F-88DD5404F5BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="449">
   <si>
     <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>6,45%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,202 +107,202 @@
     <t>93,55%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>54,28%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>45,72%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>42,25%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>53,06%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>46,94%</t>
   </si>
   <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>68,11%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,1048 +311,1072 @@
     <t>10,85%</t>
   </si>
   <si>
-    <t>8,85%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>10,31%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
   </si>
   <si>
     <t>21,52%</t>
@@ -1773,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB2AFD0-AD9E-408C-B946-805065F9AA61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD821D74-95EF-4666-8C17-69BCBFCF9F70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2720,7 +2744,7 @@
         <v>2953</v>
       </c>
       <c r="D20" s="7">
-        <v>2999905</v>
+        <v>2999904</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2771,7 +2795,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2836,7 +2860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C433CA-C48E-47AE-8A8A-F8786E547856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D626A35B-C6AF-4177-8451-4FCC1AE43A10}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,13 +2984,13 @@
         <v>10992</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -2975,13 +2999,13 @@
         <v>70897</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -2990,10 +3014,10 @@
         <v>81889</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>134</v>
@@ -3011,13 +3035,13 @@
         <v>104773</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -3026,13 +3050,13 @@
         <v>41008</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3041,13 +3065,13 @@
         <v>145781</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE313054-62A2-4750-BE11-2200F34DEDC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA588C7D-85BC-4632-B4C1-32B894368EFA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4491,10 +4515,10 @@
         <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>408</v>
@@ -4503,13 +4527,13 @@
         <v>441887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>500</v>
@@ -4518,13 +4542,13 @@
         <v>545625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4563,13 @@
         <v>655814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -4554,13 +4578,13 @@
         <v>343124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>932</v>
@@ -4569,13 +4593,13 @@
         <v>998938</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4667,13 @@
         <v>156155</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>495</v>
@@ -4658,13 +4682,13 @@
         <v>539150</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>647</v>
@@ -4673,13 +4697,13 @@
         <v>695306</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4718,13 @@
         <v>781412</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>464</v>
@@ -4709,13 +4733,13 @@
         <v>504629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>1244</v>
@@ -4724,13 +4748,13 @@
         <v>1286040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4822,13 @@
         <v>487343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>1833</v>
@@ -4813,13 +4837,13 @@
         <v>1960072</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>2288</v>
@@ -4828,13 +4852,13 @@
         <v>2447415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4873,13 @@
         <v>2907007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>1505</v>
@@ -4864,13 +4888,13 @@
         <v>1584470</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>4281</v>
@@ -4879,13 +4903,13 @@
         <v>4491477</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A37495D-3590-4876-9947-E9FB3AF4E440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB0578C-CCCA-4267-A39F-0D36DE1F131D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +5003,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5110,13 @@
         <v>60102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>225</v>
@@ -5101,13 +5125,13 @@
         <v>122693</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -5116,13 +5140,13 @@
         <v>182795</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5161,13 @@
         <v>41880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5152,13 +5176,13 @@
         <v>8040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -5167,13 +5191,13 @@
         <v>49920</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5265,13 @@
         <v>350850</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>927</v>
@@ -5256,13 +5280,13 @@
         <v>579439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>1328</v>
@@ -5271,13 +5295,13 @@
         <v>930288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5316,13 @@
         <v>198973</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5307,13 +5331,13 @@
         <v>40528</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>282</v>
@@ -5322,13 +5346,13 @@
         <v>239502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5420,13 @@
         <v>636433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>1411</v>
@@ -5411,13 +5435,13 @@
         <v>974579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
         <v>2035</v>
@@ -5426,13 +5450,13 @@
         <v>1611012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5471,13 @@
         <v>402815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5462,13 +5486,13 @@
         <v>85500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5477,13 +5501,13 @@
         <v>488315</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5575,13 @@
         <v>492786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>972</v>
@@ -5566,13 +5590,13 @@
         <v>807415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -5581,13 +5605,13 @@
         <v>1300200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5626,13 @@
         <v>235986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5617,13 +5641,13 @@
         <v>66956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -5632,13 +5656,13 @@
         <v>302942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5730,13 @@
         <v>641966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>1402</v>
@@ -5721,13 +5745,13 @@
         <v>1000840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>2069</v>
@@ -5736,13 +5760,13 @@
         <v>1642805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5781,13 @@
         <v>323437</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -5772,13 +5796,13 @@
         <v>149592</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>499</v>
@@ -5787,13 +5811,13 @@
         <v>473030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5885,13 @@
         <v>2182137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H19" s="7">
         <v>4937</v>
@@ -5876,13 +5900,13 @@
         <v>3484964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>7164</v>
@@ -5891,13 +5915,13 @@
         <v>5667100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5936,13 @@
         <v>1203091</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -5927,13 +5951,13 @@
         <v>350617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>1579</v>
@@ -5942,13 +5966,13 @@
         <v>1553708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920D81B9-1D12-438A-A55E-902D8E379E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6643C8-2BBF-4AD2-84B2-A7548792BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1108DD62-49AA-47A1-BB4F-88DD5404F5BF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D67AFFF-7781-4A98-A16F-98A13F0D5879}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="449">
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,64 +71,64 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>SÍ</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1255 +137,1237 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
   </si>
   <si>
     <t>52,27%</t>
   </si>
   <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>Tareas del hogar realizadas por el/la entrevistado/a en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD821D74-95EF-4666-8C17-69BCBFCF9F70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9006F1FA-F855-49CF-8FCC-6C58CF958AD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1915,10 +1897,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>7436</v>
+        <v>33868</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1930,10 +1912,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>59354</v>
+        <v>95089</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1945,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>66790</v>
+        <v>128957</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1966,10 +1948,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7">
-        <v>107922</v>
+        <v>81490</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1981,10 +1963,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>53401</v>
+        <v>17666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1996,10 +1978,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>161323</v>
+        <v>99156</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2070,10 +2052,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>31903</v>
+        <v>146156</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2085,10 +2067,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>471</v>
       </c>
       <c r="I7" s="7">
-        <v>312426</v>
+        <v>480844</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2100,10 +2082,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>335</v>
+        <v>615</v>
       </c>
       <c r="N7" s="7">
-        <v>344329</v>
+        <v>627000</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2121,10 +2103,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>547</v>
+        <v>434</v>
       </c>
       <c r="D8" s="7">
-        <v>546751</v>
+        <v>432498</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2136,10 +2118,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>264</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>263170</v>
+        <v>93599</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2151,10 +2133,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>811</v>
+        <v>530</v>
       </c>
       <c r="N8" s="7">
-        <v>809921</v>
+        <v>526097</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2187,10 +2169,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>574443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2202,10 +2184,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1153097</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2225,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>63514</v>
+        <v>302065</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2240,10 +2222,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>520</v>
+        <v>775</v>
       </c>
       <c r="I10" s="7">
-        <v>559280</v>
+        <v>832484</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2255,10 +2237,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>578</v>
+        <v>1046</v>
       </c>
       <c r="N10" s="7">
-        <v>622794</v>
+        <v>1134549</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2276,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>838</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>898286</v>
+        <v>659735</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2291,10 +2273,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="I11" s="7">
-        <v>409113</v>
+        <v>135909</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2306,10 +2288,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1226</v>
+        <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>1307399</v>
+        <v>795644</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2380,10 +2362,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="D13" s="7">
-        <v>71588</v>
+        <v>268029</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2395,10 +2377,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>367</v>
+        <v>602</v>
       </c>
       <c r="I13" s="7">
-        <v>362843</v>
+        <v>592387</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2410,10 +2392,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>430</v>
+        <v>843</v>
       </c>
       <c r="N13" s="7">
-        <v>434431</v>
+        <v>860417</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2431,10 +2413,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>578</v>
+        <v>400</v>
       </c>
       <c r="D14" s="7">
-        <v>606921</v>
+        <v>410480</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2446,10 +2428,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="I14" s="7">
-        <v>320998</v>
+        <v>88055</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2461,10 +2443,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>907</v>
+        <v>491</v>
       </c>
       <c r="N14" s="7">
-        <v>927919</v>
+        <v>498535</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2497,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>680442</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2512,10 +2494,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1358952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2535,10 +2517,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="D16" s="7">
-        <v>102197</v>
+        <v>370218</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2550,10 +2532,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>512</v>
+        <v>801</v>
       </c>
       <c r="I16" s="7">
-        <v>535164</v>
+        <v>836481</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2565,10 +2547,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>614</v>
+        <v>1174</v>
       </c>
       <c r="N16" s="7">
-        <v>637361</v>
+        <v>1206699</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2586,10 +2568,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>892</v>
+        <v>620</v>
       </c>
       <c r="D17" s="7">
-        <v>840025</v>
+        <v>571122</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2601,10 +2583,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="I17" s="7">
-        <v>503448</v>
+        <v>202131</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2616,10 +2598,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>1377</v>
+        <v>816</v>
       </c>
       <c r="N17" s="7">
-        <v>1343473</v>
+        <v>773253</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2637,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>941340</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2667,10 +2649,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>1979952</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2690,10 +2672,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>261</v>
+        <v>1059</v>
       </c>
       <c r="D19" s="7">
-        <v>276639</v>
+        <v>1120337</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2705,10 +2687,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>1771</v>
+        <v>2757</v>
       </c>
       <c r="I19" s="7">
-        <v>1829067</v>
+        <v>2837286</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -2720,10 +2702,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>2032</v>
+        <v>3816</v>
       </c>
       <c r="N19" s="7">
-        <v>2105705</v>
+        <v>3957622</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -2741,10 +2723,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2953</v>
+        <v>2154</v>
       </c>
       <c r="D20" s="7">
-        <v>2999904</v>
+        <v>2155325</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -2756,10 +2738,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>1526</v>
+        <v>536</v>
       </c>
       <c r="I20" s="7">
-        <v>1550131</v>
+        <v>537360</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -2771,10 +2753,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>4479</v>
+        <v>2690</v>
       </c>
       <c r="N20" s="7">
-        <v>4550036</v>
+        <v>2692685</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2792,10 +2774,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3275662</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2807,10 +2789,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="I21" s="7">
-        <v>3379198</v>
+        <v>3374646</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2822,10 +2804,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6511</v>
+        <v>6506</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6650307</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2860,7 +2842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D626A35B-C6AF-4177-8451-4FCC1AE43A10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075679BC-BE9B-4C3E-B8FA-3E7774CA60FE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2978,49 +2960,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7">
-        <v>10992</v>
+        <v>47769</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I4" s="7">
-        <v>70897</v>
+        <v>98759</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="N4" s="7">
-        <v>81889</v>
+        <v>146527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,49 +3011,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7">
-        <v>104773</v>
+        <v>67996</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>41008</v>
+        <v>13146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="N5" s="7">
-        <v>145781</v>
+        <v>81143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,49 +3115,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="D7" s="7">
-        <v>43642</v>
+        <v>231677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>459</v>
       </c>
       <c r="I7" s="7">
-        <v>347345</v>
+        <v>488736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>671</v>
       </c>
       <c r="N7" s="7">
-        <v>390987</v>
+        <v>720412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,49 +3166,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>512</v>
+        <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>544062</v>
+        <v>356027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="I8" s="7">
-        <v>237800</v>
+        <v>96409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>737</v>
+        <v>432</v>
       </c>
       <c r="N8" s="7">
-        <v>781862</v>
+        <v>452437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,49 +3270,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>81359</v>
+        <v>430310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>516</v>
+        <v>775</v>
       </c>
       <c r="I10" s="7">
-        <v>570565</v>
+        <v>852026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
-        <v>592</v>
+        <v>1172</v>
       </c>
       <c r="N10" s="7">
-        <v>651924</v>
+        <v>1282336</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,49 +3321,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>860</v>
+        <v>538</v>
       </c>
       <c r="D11" s="7">
-        <v>936588</v>
+        <v>586578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
-        <v>424</v>
+        <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>461619</v>
+        <v>180158</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>1284</v>
+        <v>703</v>
       </c>
       <c r="N11" s="7">
-        <v>1398207</v>
+        <v>766736</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>1016888</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3420,10 +3402,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>2049072</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3443,49 +3425,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="D13" s="7">
-        <v>80659</v>
+        <v>328409</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
-        <v>400</v>
+        <v>601</v>
       </c>
       <c r="I13" s="7">
-        <v>439683</v>
+        <v>661074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
-        <v>470</v>
+        <v>897</v>
       </c>
       <c r="N13" s="7">
-        <v>520342</v>
+        <v>989483</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,49 +3476,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>619</v>
+        <v>393</v>
       </c>
       <c r="D14" s="7">
-        <v>676964</v>
+        <v>429214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7">
-        <v>337491</v>
+        <v>114099</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>924</v>
+        <v>495</v>
       </c>
       <c r="N14" s="7">
-        <v>1014455</v>
+        <v>543313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3542,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>775173</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3575,10 +3557,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1532796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3598,49 +3580,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>97</v>
+        <v>440</v>
       </c>
       <c r="D16" s="7">
-        <v>104465</v>
+        <v>457676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
-        <v>503</v>
+        <v>829</v>
       </c>
       <c r="I16" s="7">
-        <v>530389</v>
+        <v>870227</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
-        <v>600</v>
+        <v>1269</v>
       </c>
       <c r="N16" s="7">
-        <v>634854</v>
+        <v>1327903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,49 +3631,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>813</v>
+        <v>470</v>
       </c>
       <c r="D17" s="7">
-        <v>843274</v>
+        <v>490063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>500</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7">
-        <v>521512</v>
+        <v>181674</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>1313</v>
+        <v>644</v>
       </c>
       <c r="N17" s="7">
-        <v>1364786</v>
+        <v>671737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,49 +3735,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>296</v>
+        <v>1393</v>
       </c>
       <c r="D19" s="7">
-        <v>321117</v>
+        <v>1495841</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
-        <v>1807</v>
+        <v>2751</v>
       </c>
       <c r="I19" s="7">
-        <v>1958879</v>
+        <v>2970821</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
-        <v>2103</v>
+        <v>4144</v>
       </c>
       <c r="N19" s="7">
-        <v>2279995</v>
+        <v>4466662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,40 +3786,40 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2913</v>
+        <v>1815</v>
       </c>
       <c r="D20" s="7">
-        <v>3105662</v>
+        <v>1929878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
-        <v>1491</v>
+        <v>545</v>
       </c>
       <c r="I20" s="7">
-        <v>1599430</v>
+        <v>585487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
-        <v>4404</v>
+        <v>2360</v>
       </c>
       <c r="N20" s="7">
-        <v>4705093</v>
+        <v>2515365</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>230</v>
@@ -3855,10 +3837,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D21" s="7">
-        <v>3426779</v>
+        <v>3425719</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3870,10 +3852,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="I21" s="7">
-        <v>3558309</v>
+        <v>3556308</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3885,10 +3867,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6507</v>
+        <v>6504</v>
       </c>
       <c r="N21" s="7">
-        <v>6985088</v>
+        <v>6982027</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3923,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA588C7D-85BC-4632-B4C1-32B894368EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D107A2B0-9670-42BE-88A1-3B89B53C1805}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4041,10 +4023,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>19573</v>
+        <v>54383</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>234</v>
@@ -4056,10 +4038,10 @@
         <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I4" s="7">
-        <v>73843</v>
+        <v>100186</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>237</v>
@@ -4071,10 +4053,10 @@
         <v>239</v>
       </c>
       <c r="M4" s="7">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="N4" s="7">
-        <v>93416</v>
+        <v>154569</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>240</v>
@@ -4092,10 +4074,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>96973</v>
+        <v>62163</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>243</v>
@@ -4107,10 +4089,10 @@
         <v>245</v>
       </c>
       <c r="H5" s="7">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>39517</v>
+        <v>13174</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>246</v>
@@ -4122,10 +4104,10 @@
         <v>248</v>
       </c>
       <c r="M5" s="7">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="N5" s="7">
-        <v>136490</v>
+        <v>75337</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>249</v>
@@ -4196,10 +4178,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="D7" s="7">
-        <v>81001</v>
+        <v>268155</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>252</v>
@@ -4211,10 +4193,10 @@
         <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>335</v>
+        <v>478</v>
       </c>
       <c r="I7" s="7">
-        <v>343548</v>
+        <v>484160</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>255</v>
@@ -4226,10 +4208,10 @@
         <v>257</v>
       </c>
       <c r="M7" s="7">
-        <v>412</v>
+        <v>732</v>
       </c>
       <c r="N7" s="7">
-        <v>424549</v>
+        <v>752314</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>258</v>
@@ -4247,10 +4229,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>462</v>
+        <v>285</v>
       </c>
       <c r="D8" s="7">
-        <v>477253</v>
+        <v>290099</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>261</v>
@@ -4262,10 +4244,10 @@
         <v>263</v>
       </c>
       <c r="H8" s="7">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>215931</v>
+        <v>74385</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>264</v>
@@ -4277,10 +4259,10 @@
         <v>266</v>
       </c>
       <c r="M8" s="7">
-        <v>678</v>
+        <v>357</v>
       </c>
       <c r="N8" s="7">
-        <v>693184</v>
+        <v>364484</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>267</v>
@@ -4313,10 +4295,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>558545</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4328,10 +4310,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>1116798</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4351,10 +4333,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>115</v>
+        <v>479</v>
       </c>
       <c r="D10" s="7">
-        <v>126875</v>
+        <v>524221</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>270</v>
@@ -4363,31 +4345,31 @@
         <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="7">
+        <v>872</v>
+      </c>
+      <c r="I10" s="7">
+        <v>929024</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="7">
-        <v>520</v>
-      </c>
-      <c r="I10" s="7">
-        <v>561644</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1351</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1453245</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="M10" s="7">
-        <v>635</v>
-      </c>
-      <c r="N10" s="7">
-        <v>688519</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>276</v>
@@ -4402,43 +4384,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>836</v>
+        <v>471</v>
       </c>
       <c r="D11" s="7">
-        <v>895556</v>
+        <v>497237</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>104</v>
+      </c>
+      <c r="I11" s="7">
+        <v>112935</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="7">
-        <v>457</v>
-      </c>
-      <c r="I11" s="7">
-        <v>481269</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>575</v>
+      </c>
+      <c r="N11" s="7">
+        <v>610172</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1293</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1376825</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>284</v>
@@ -4453,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>1021458</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4468,10 +4450,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>1041959</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4483,10 +4465,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>2063417</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4506,10 +4488,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>92</v>
+        <v>359</v>
       </c>
       <c r="D13" s="7">
-        <v>103738</v>
+        <v>394431</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>286</v>
@@ -4521,10 +4503,10 @@
         <v>288</v>
       </c>
       <c r="H13" s="7">
-        <v>408</v>
+        <v>649</v>
       </c>
       <c r="I13" s="7">
-        <v>441887</v>
+        <v>691528</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>289</v>
@@ -4536,10 +4518,10 @@
         <v>291</v>
       </c>
       <c r="M13" s="7">
-        <v>500</v>
+        <v>1008</v>
       </c>
       <c r="N13" s="7">
-        <v>545625</v>
+        <v>1085959</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>292</v>
@@ -4557,10 +4539,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>604</v>
+        <v>334</v>
       </c>
       <c r="D14" s="7">
-        <v>655814</v>
+        <v>361258</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>295</v>
@@ -4572,10 +4554,10 @@
         <v>297</v>
       </c>
       <c r="H14" s="7">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>343124</v>
+        <v>91451</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>298</v>
@@ -4587,10 +4569,10 @@
         <v>300</v>
       </c>
       <c r="M14" s="7">
-        <v>932</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>998938</v>
+        <v>452709</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>301</v>
@@ -4608,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>755689</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4623,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>782979</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4638,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1538668</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4661,10 +4643,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>550</v>
       </c>
       <c r="D16" s="7">
-        <v>156155</v>
+        <v>557284</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>304</v>
@@ -4673,37 +4655,37 @@
         <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="7">
+        <v>821</v>
+      </c>
+      <c r="I16" s="7">
+        <v>888469</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="7">
-        <v>495</v>
-      </c>
-      <c r="I16" s="7">
-        <v>539150</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1371</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1445753</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="M16" s="7">
-        <v>647</v>
-      </c>
-      <c r="N16" s="7">
-        <v>695306</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,49 +4694,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>780</v>
+        <v>378</v>
       </c>
       <c r="D17" s="7">
-        <v>781412</v>
+        <v>376078</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>137</v>
+      </c>
+      <c r="I17" s="7">
+        <v>154269</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H17" s="7">
-        <v>464</v>
-      </c>
-      <c r="I17" s="7">
-        <v>504629</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>515</v>
+      </c>
+      <c r="N17" s="7">
+        <v>530347</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="M17" s="7">
-        <v>1244</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1286040</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,10 +4745,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>933362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4778,10 +4760,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>1042738</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4793,10 +4775,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>1976100</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4816,49 +4798,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>455</v>
+        <v>1694</v>
       </c>
       <c r="D19" s="7">
-        <v>487343</v>
+        <v>1798474</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>2922</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3093366</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H19" s="7">
-        <v>1833</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1960072</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>4616</v>
+      </c>
+      <c r="N19" s="7">
+        <v>4891842</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2288</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2447415</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,49 +4849,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2776</v>
+        <v>1529</v>
       </c>
       <c r="D20" s="7">
-        <v>2907007</v>
+        <v>1586835</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="7">
+        <v>411</v>
+      </c>
+      <c r="I20" s="7">
+        <v>446214</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H20" s="7">
-        <v>1505</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1584470</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1940</v>
+      </c>
+      <c r="N20" s="7">
+        <v>2033048</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4281</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4491477</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3231</v>
+        <v>3223</v>
       </c>
       <c r="D21" s="7">
-        <v>3394350</v>
+        <v>3385309</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4933,10 +4915,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="I21" s="7">
-        <v>3544542</v>
+        <v>3539580</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4948,10 +4930,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>6569</v>
+        <v>6556</v>
       </c>
       <c r="N21" s="7">
-        <v>6938892</v>
+        <v>6924890</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4986,7 +4968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB0578C-CCCA-4267-A39F-0D36DE1F131D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2754C2-6FC5-414F-91CA-25DB8DB8AFFC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5003,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5110,13 +5092,13 @@
         <v>60102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>225</v>
@@ -5125,13 +5107,13 @@
         <v>122693</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>299</v>
@@ -5140,13 +5122,13 @@
         <v>182795</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5143,13 @@
         <v>41880</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -5176,13 +5158,13 @@
         <v>8040</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -5191,13 +5173,13 @@
         <v>49920</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,16 +5244,16 @@
         <v>401</v>
       </c>
       <c r="D7" s="7">
-        <v>350850</v>
+        <v>350849</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>927</v>
@@ -5280,13 +5262,13 @@
         <v>579439</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>1328</v>
@@ -5295,13 +5277,13 @@
         <v>930288</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,19 +5292,19 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="7">
-        <v>198973</v>
+        <v>198475</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -5331,28 +5313,28 @@
         <v>40528</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M8" s="7">
+        <v>281</v>
+      </c>
+      <c r="N8" s="7">
+        <v>239003</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M8" s="7">
-        <v>282</v>
-      </c>
-      <c r="N8" s="7">
-        <v>239502</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>549324</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5391,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>1169291</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5420,13 +5402,13 @@
         <v>636433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>1411</v>
@@ -5435,13 +5417,13 @@
         <v>974579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>2035</v>
@@ -5450,13 +5432,13 @@
         <v>1611012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5453,13 @@
         <v>402815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -5486,13 +5468,13 @@
         <v>85500</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>446</v>
@@ -5501,13 +5483,13 @@
         <v>488315</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5557,13 @@
         <v>492786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>972</v>
@@ -5590,13 +5572,13 @@
         <v>807415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>1433</v>
@@ -5605,13 +5587,13 @@
         <v>1300200</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5608,13 @@
         <v>235986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>75</v>
@@ -5641,13 +5623,13 @@
         <v>66956</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>290</v>
@@ -5656,13 +5638,13 @@
         <v>302942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5712,13 @@
         <v>641966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>1402</v>
@@ -5745,13 +5727,13 @@
         <v>1000840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>2069</v>
@@ -5760,13 +5742,13 @@
         <v>1642805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,49 +5757,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" s="7">
-        <v>323437</v>
+        <v>322771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H17" s="7">
+        <v>158</v>
+      </c>
+      <c r="I17" s="7">
+        <v>148229</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M17" s="7">
+        <v>496</v>
+      </c>
+      <c r="N17" s="7">
+        <v>471001</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="H17" s="7">
-        <v>160</v>
-      </c>
-      <c r="I17" s="7">
-        <v>149592</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M17" s="7">
-        <v>499</v>
-      </c>
-      <c r="N17" s="7">
-        <v>473030</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,10 +5808,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>964737</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5841,10 +5823,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>1149069</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5856,10 +5838,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>2565</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>2113806</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5885,13 +5867,13 @@
         <v>2182137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>4937</v>
@@ -5900,28 +5882,28 @@
         <v>3484964</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>7164</v>
       </c>
       <c r="N19" s="7">
-        <v>5667100</v>
+        <v>5667101</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,49 +5912,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D20" s="7">
-        <v>1203091</v>
+        <v>1201927</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="7">
+        <v>428</v>
+      </c>
+      <c r="I20" s="7">
+        <v>349254</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1575</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1551181</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="H20" s="7">
-        <v>430</v>
-      </c>
-      <c r="I20" s="7">
-        <v>350617</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1579</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1553708</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3385228</v>
+        <v>3384064</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5996,10 +5978,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="I21" s="7">
-        <v>3835581</v>
+        <v>3834218</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6011,10 +5993,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>8743</v>
+        <v>8739</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7218282</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA6643C8-2BBF-4AD2-84B2-A7548792BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{378B72B2-9890-41B5-9D40-3C3E16C42636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D67AFFF-7781-4A98-A16F-98A13F0D5879}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{39FC6F88-F2AD-4C8D-8FD4-BA6C75A8DC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,1306 +68,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
 </sst>
 </file>
@@ -1779,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9006F1FA-F855-49CF-8FCC-6C58CF958AD9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B43537-BEC6-4BEA-A0C5-55B1782AD8FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1897,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>33868</v>
+        <v>180024</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1912,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="I4" s="7">
-        <v>95089</v>
+        <v>575933</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1927,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>138</v>
+        <v>753</v>
       </c>
       <c r="N4" s="7">
-        <v>128957</v>
+        <v>755957</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1948,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>509</v>
       </c>
       <c r="D5" s="7">
-        <v>81490</v>
+        <v>513988</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1963,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="I5" s="7">
-        <v>17666</v>
+        <v>111265</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1978,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>95</v>
+        <v>625</v>
       </c>
       <c r="N5" s="7">
-        <v>99156</v>
+        <v>625253</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1999,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2014,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687198</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2029,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381210</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2052,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="D7" s="7">
-        <v>146156</v>
+        <v>302065</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2067,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>471</v>
+        <v>775</v>
       </c>
       <c r="I7" s="7">
-        <v>480844</v>
+        <v>832484</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2082,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>615</v>
+        <v>1046</v>
       </c>
       <c r="N7" s="7">
-        <v>627000</v>
+        <v>1134549</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2103,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>434</v>
+        <v>625</v>
       </c>
       <c r="D8" s="7">
-        <v>432498</v>
+        <v>659735</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2118,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="I8" s="7">
-        <v>93599</v>
+        <v>135909</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2133,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>530</v>
+        <v>758</v>
       </c>
       <c r="N8" s="7">
-        <v>526097</v>
+        <v>795644</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2154,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2169,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>574443</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2184,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153097</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2207,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D10" s="7">
-        <v>302065</v>
+        <v>268029</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2222,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>775</v>
+        <v>602</v>
       </c>
       <c r="I10" s="7">
-        <v>832484</v>
+        <v>592388</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2237,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1046</v>
+        <v>843</v>
       </c>
       <c r="N10" s="7">
-        <v>1134549</v>
+        <v>860417</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2258,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="D11" s="7">
-        <v>659735</v>
+        <v>410480</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2273,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>135909</v>
+        <v>88055</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2288,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>758</v>
+        <v>491</v>
       </c>
       <c r="N11" s="7">
-        <v>795644</v>
+        <v>498535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2309,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2324,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>693</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>680443</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2339,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1334</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1358952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2362,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>241</v>
+        <v>373</v>
       </c>
       <c r="D13" s="7">
-        <v>268029</v>
+        <v>370218</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2377,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>602</v>
+        <v>801</v>
       </c>
       <c r="I13" s="7">
-        <v>592387</v>
+        <v>836481</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2392,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>843</v>
+        <v>1174</v>
       </c>
       <c r="N13" s="7">
-        <v>860417</v>
+        <v>1206699</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2413,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>400</v>
+        <v>620</v>
       </c>
       <c r="D14" s="7">
-        <v>410480</v>
+        <v>571122</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2428,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>88055</v>
+        <v>202131</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2443,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>491</v>
+        <v>816</v>
       </c>
       <c r="N14" s="7">
-        <v>498535</v>
+        <v>773253</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2464,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2479,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>693</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>680442</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2494,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1334</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1358952</v>
+        <v>1979952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2511,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>373</v>
+        <v>1059</v>
       </c>
       <c r="D16" s="7">
-        <v>370218</v>
+        <v>1120336</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2757</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2837285</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>801</v>
-      </c>
-      <c r="I16" s="7">
-        <v>836481</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3816</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3957622</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1174</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1206699</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>620</v>
+        <v>2154</v>
       </c>
       <c r="D17" s="7">
-        <v>571122</v>
+        <v>2155325</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>536</v>
+      </c>
+      <c r="I17" s="7">
+        <v>537360</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>196</v>
-      </c>
-      <c r="I17" s="7">
-        <v>202131</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2690</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2692685</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>816</v>
-      </c>
-      <c r="N17" s="7">
-        <v>773253</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3275661</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2634,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3293</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3374645</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2649,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6506</v>
       </c>
       <c r="N18" s="7">
-        <v>1979952</v>
+        <v>6650307</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2665,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1120337</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2757</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2837286</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3816</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3957622</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2154</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2155325</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>536</v>
-      </c>
-      <c r="I20" s="7">
-        <v>537360</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2690</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2692685</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3374646</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6506</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6650307</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2842,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075679BC-BE9B-4C3E-B8FA-3E7774CA60FE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2AA9278-1ABB-4240-BC46-436E2111FB73}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2859,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="D4" s="7">
-        <v>47769</v>
+        <v>279446</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>87</v>
+        <v>546</v>
       </c>
       <c r="I4" s="7">
-        <v>98759</v>
+        <v>587494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>135</v>
+        <v>806</v>
       </c>
       <c r="N4" s="7">
-        <v>146527</v>
+        <v>866940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>414</v>
       </c>
       <c r="D5" s="7">
-        <v>67996</v>
+        <v>424023</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I5" s="7">
-        <v>13146</v>
+        <v>109556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>86</v>
+        <v>518</v>
       </c>
       <c r="N5" s="7">
-        <v>81143</v>
+        <v>533579</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3077,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3092,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3115,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>212</v>
+        <v>397</v>
       </c>
       <c r="D7" s="7">
-        <v>231677</v>
+        <v>430310</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>459</v>
+        <v>775</v>
       </c>
       <c r="I7" s="7">
-        <v>488736</v>
+        <v>852026</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>671</v>
+        <v>1172</v>
       </c>
       <c r="N7" s="7">
-        <v>720412</v>
+        <v>1282336</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>340</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>356027</v>
+        <v>586578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I8" s="7">
-        <v>96409</v>
+        <v>180158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>432</v>
+        <v>703</v>
       </c>
       <c r="N8" s="7">
-        <v>452437</v>
+        <v>766736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016888</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3247,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049072</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3270,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="D10" s="7">
-        <v>430310</v>
+        <v>328409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>775</v>
+        <v>601</v>
       </c>
       <c r="I10" s="7">
-        <v>852026</v>
+        <v>661074</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1172</v>
+        <v>897</v>
       </c>
       <c r="N10" s="7">
-        <v>1282336</v>
+        <v>989483</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="D11" s="7">
-        <v>586578</v>
+        <v>429214</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="I11" s="7">
-        <v>180158</v>
+        <v>114099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>703</v>
+        <v>495</v>
       </c>
       <c r="N11" s="7">
-        <v>766736</v>
+        <v>543313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016888</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3387,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>703</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>775173</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3402,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2049072</v>
+        <v>1532796</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3425,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="D13" s="7">
-        <v>328409</v>
+        <v>457676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>601</v>
+        <v>829</v>
       </c>
       <c r="I13" s="7">
-        <v>661074</v>
+        <v>870227</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>897</v>
+        <v>1269</v>
       </c>
       <c r="N13" s="7">
-        <v>989483</v>
+        <v>1327903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="D14" s="7">
-        <v>429214</v>
+        <v>490063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>114099</v>
+        <v>181674</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>495</v>
+        <v>644</v>
       </c>
       <c r="N14" s="7">
-        <v>543313</v>
+        <v>671737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3542,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>703</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>775173</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3557,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1532796</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3574,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>440</v>
+        <v>1393</v>
       </c>
       <c r="D16" s="7">
-        <v>457676</v>
+        <v>1495841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>829</v>
+        <v>2751</v>
       </c>
       <c r="I16" s="7">
-        <v>870227</v>
+        <v>2970821</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
-        <v>1269</v>
+        <v>4144</v>
       </c>
       <c r="N16" s="7">
-        <v>1327903</v>
+        <v>4466662</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>470</v>
+        <v>1815</v>
       </c>
       <c r="D17" s="7">
-        <v>490063</v>
+        <v>1929878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>174</v>
+        <v>545</v>
       </c>
       <c r="I17" s="7">
-        <v>181674</v>
+        <v>585487</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>644</v>
+        <v>2360</v>
       </c>
       <c r="N17" s="7">
-        <v>671737</v>
+        <v>2515365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425719</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3697,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3556308</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3712,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6982027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3728,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1393</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1495841</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2751</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2970821</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4144</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4466662</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1815</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1929878</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="7">
-        <v>545</v>
-      </c>
-      <c r="I20" s="7">
-        <v>585487</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2360</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2515365</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425719</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556308</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6982027</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3905,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D107A2B0-9670-42BE-88A1-3B89B53C1805}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF4C7CF-15DC-4ECE-88DC-CAD1B57D0FE7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3922,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="D4" s="7">
-        <v>54383</v>
+        <v>322538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>102</v>
+        <v>580</v>
       </c>
       <c r="I4" s="7">
-        <v>100186</v>
+        <v>584346</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>154</v>
+        <v>886</v>
       </c>
       <c r="N4" s="7">
-        <v>154569</v>
+        <v>906884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>346</v>
       </c>
       <c r="D5" s="7">
-        <v>62163</v>
+        <v>352262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>13174</v>
+        <v>87559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="N5" s="7">
-        <v>75337</v>
+        <v>439821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4140,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>665</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>671905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4155,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1346705</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4178,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>254</v>
+        <v>479</v>
       </c>
       <c r="D7" s="7">
-        <v>268155</v>
+        <v>524221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
-        <v>478</v>
+        <v>872</v>
       </c>
       <c r="I7" s="7">
-        <v>484160</v>
+        <v>929024</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>732</v>
+        <v>1351</v>
       </c>
       <c r="N7" s="7">
-        <v>752314</v>
+        <v>1453245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>285</v>
+        <v>471</v>
       </c>
       <c r="D8" s="7">
-        <v>290099</v>
+        <v>497237</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I8" s="7">
-        <v>74385</v>
+        <v>112935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>357</v>
+        <v>575</v>
       </c>
       <c r="N8" s="7">
-        <v>364484</v>
+        <v>610172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1021458</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4295,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>976</v>
       </c>
       <c r="I9" s="7">
-        <v>558545</v>
+        <v>1041959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4310,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1089</v>
+        <v>1926</v>
       </c>
       <c r="N9" s="7">
-        <v>1116798</v>
+        <v>2063417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4333,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>524221</v>
+        <v>394431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>872</v>
+        <v>649</v>
       </c>
       <c r="I10" s="7">
-        <v>929024</v>
+        <v>691528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>1351</v>
+        <v>1008</v>
       </c>
       <c r="N10" s="7">
-        <v>1453245</v>
+        <v>1085959</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>497237</v>
+        <v>361258</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>112935</v>
+        <v>91451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>575</v>
+        <v>419</v>
       </c>
       <c r="N11" s="7">
-        <v>610172</v>
+        <v>452709</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>693</v>
       </c>
       <c r="D12" s="7">
-        <v>1021458</v>
+        <v>755689</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4450,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>976</v>
+        <v>734</v>
       </c>
       <c r="I12" s="7">
-        <v>1041959</v>
+        <v>782979</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4465,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1926</v>
+        <v>1427</v>
       </c>
       <c r="N12" s="7">
-        <v>2063417</v>
+        <v>1538668</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4488,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>359</v>
+        <v>550</v>
       </c>
       <c r="D13" s="7">
-        <v>394431</v>
+        <v>557284</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>649</v>
+        <v>821</v>
       </c>
       <c r="I13" s="7">
-        <v>691528</v>
+        <v>888469</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>1008</v>
+        <v>1371</v>
       </c>
       <c r="N13" s="7">
-        <v>1085959</v>
+        <v>1445753</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="D14" s="7">
-        <v>361258</v>
+        <v>376078</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>91451</v>
+        <v>154269</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="N14" s="7">
-        <v>452709</v>
+        <v>530347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>693</v>
+        <v>928</v>
       </c>
       <c r="D15" s="7">
-        <v>755689</v>
+        <v>933362</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4605,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>734</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>782979</v>
+        <v>1042738</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4620,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1427</v>
+        <v>1886</v>
       </c>
       <c r="N15" s="7">
-        <v>1538668</v>
+        <v>1976100</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4637,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>550</v>
+        <v>1694</v>
       </c>
       <c r="D16" s="7">
-        <v>557284</v>
+        <v>1798474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>821</v>
+        <v>2922</v>
       </c>
       <c r="I16" s="7">
-        <v>888469</v>
+        <v>3093366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>1371</v>
+        <v>4616</v>
       </c>
       <c r="N16" s="7">
-        <v>1445753</v>
+        <v>4891842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>378</v>
+        <v>1529</v>
       </c>
       <c r="D17" s="7">
-        <v>376078</v>
+        <v>1586835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="I17" s="7">
-        <v>154269</v>
+        <v>446214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>515</v>
+        <v>1940</v>
       </c>
       <c r="N17" s="7">
-        <v>530347</v>
+        <v>2033048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>928</v>
+        <v>3223</v>
       </c>
       <c r="D18" s="7">
-        <v>933362</v>
+        <v>3385309</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4760,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3333</v>
       </c>
       <c r="I18" s="7">
-        <v>1042738</v>
+        <v>3539580</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4775,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1886</v>
+        <v>6556</v>
       </c>
       <c r="N18" s="7">
-        <v>1976100</v>
+        <v>6924890</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4791,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1694</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1798474</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2922</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3093366</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4616</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4891842</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1529</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1586835</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H20" s="7">
-        <v>411</v>
-      </c>
-      <c r="I20" s="7">
-        <v>446214</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1940</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2033048</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3223</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385309</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3333</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3539580</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6556</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6924890</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4968,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2754C2-6FC5-414F-91CA-25DB8DB8AFFC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC8D5AB-1BF0-4A41-B519-094C8F8AB9C1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4985,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="D4" s="7">
-        <v>60102</v>
+        <v>401782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>225</v>
+        <v>1152</v>
       </c>
       <c r="I4" s="7">
-        <v>122693</v>
+        <v>680879</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>299</v>
+        <v>1627</v>
       </c>
       <c r="N4" s="7">
-        <v>182795</v>
+        <v>1082661</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="D5" s="7">
-        <v>41880</v>
+        <v>233193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>8040</v>
+        <v>44451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>49920</v>
+        <v>277644</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634975</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5203,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5218,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1970</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360305</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5241,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>401</v>
+        <v>624</v>
       </c>
       <c r="D7" s="7">
-        <v>350849</v>
+        <v>619109</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>927</v>
+        <v>1411</v>
       </c>
       <c r="I7" s="7">
-        <v>579439</v>
+        <v>883438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>1328</v>
+        <v>2035</v>
       </c>
       <c r="N7" s="7">
-        <v>930288</v>
+        <v>1502548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>362</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>198475</v>
+        <v>573755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I8" s="7">
-        <v>40528</v>
+        <v>75213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>281</v>
+        <v>446</v>
       </c>
       <c r="N8" s="7">
-        <v>239003</v>
+        <v>648968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549324</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5358,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5373,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1609</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169291</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5396,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>624</v>
+        <v>461</v>
       </c>
       <c r="D10" s="7">
-        <v>636433</v>
+        <v>477663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
-        <v>1411</v>
+        <v>972</v>
       </c>
       <c r="I10" s="7">
-        <v>974579</v>
+        <v>870118</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>2035</v>
+        <v>1433</v>
       </c>
       <c r="N10" s="7">
-        <v>1611012</v>
+        <v>1347781</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>402815</v>
+        <v>227017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>383</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>85500</v>
+        <v>63248</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>244</v>
       </c>
       <c r="M11" s="7">
-        <v>446</v>
+        <v>290</v>
       </c>
       <c r="N11" s="7">
-        <v>488315</v>
+        <v>290265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5513,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5528,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5551,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>461</v>
+        <v>667</v>
       </c>
       <c r="D13" s="7">
-        <v>492786</v>
+        <v>622054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>972</v>
+        <v>1402</v>
       </c>
       <c r="I13" s="7">
-        <v>807415</v>
+        <v>963142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>1433</v>
+        <v>2069</v>
       </c>
       <c r="N13" s="7">
-        <v>1300200</v>
+        <v>1585195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>235986</v>
+        <v>304145</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="I14" s="7">
-        <v>66956</v>
+        <v>130531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>290</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>302942</v>
+        <v>434676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926199</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5668,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1093673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5683,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019871</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5700,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>667</v>
+        <v>2227</v>
       </c>
       <c r="D16" s="7">
-        <v>641966</v>
+        <v>2120608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>1402</v>
+        <v>4937</v>
       </c>
       <c r="I16" s="7">
-        <v>1000840</v>
+        <v>3397577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>2069</v>
+        <v>7164</v>
       </c>
       <c r="N16" s="7">
-        <v>1642805</v>
+        <v>5518185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>338</v>
+        <v>1147</v>
       </c>
       <c r="D17" s="7">
-        <v>322771</v>
+        <v>1338110</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="I17" s="7">
-        <v>148229</v>
+        <v>313443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>496</v>
+        <v>1575</v>
       </c>
       <c r="N17" s="7">
-        <v>471001</v>
+        <v>1651553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964737</v>
+        <v>3458718</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5823,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5365</v>
       </c>
       <c r="I18" s="7">
-        <v>1149069</v>
+        <v>3711020</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5838,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2113806</v>
+        <v>7169738</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5854,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2227</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2182137</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4937</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3484964</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7164</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5667101</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1147</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1201927</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H20" s="7">
-        <v>428</v>
-      </c>
-      <c r="I20" s="7">
-        <v>349254</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1575</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1551181</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384064</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5365</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3834218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7218282</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
